--- a/stuff/timetracking.xlsx
+++ b/stuff/timetracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{76BF1A39-B05E-4C8E-8BFB-10E1FBEA72AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0BD2CC-4F50-432E-AE4C-3822CDF2C1B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="aaaa"/>
     <numFmt numFmtId="165" formatCode="dd"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -235,7 +235,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="9" applyAlignment="1">
@@ -534,7 +534,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,28 +582,38 @@
       <c r="A3" s="1">
         <v>43894</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.81944444444444453</v>
+      </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D25" si="0">C3-B3</f>
-        <v>0</v>
+        <v>1.3194444444444509E-2</v>
       </c>
       <c r="E3" s="3">
         <f>E2+D3</f>
-        <v>4.166666666666663E-2</v>
+        <v>5.4861111111111138E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43895</v>
       </c>
+      <c r="B4" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E25" si="1">E3+D4</f>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,7 +626,7 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,7 +639,7 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,7 +652,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,7 +665,7 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,7 +678,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,7 +691,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,7 +704,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,7 +717,7 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,7 +730,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,7 +743,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,7 +756,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,7 +769,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -772,7 +782,7 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,7 +795,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,7 +808,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,7 +821,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,7 +834,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,7 +847,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,7 +860,7 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,7 +873,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,7 +886,7 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.10694444444444451</v>
       </c>
     </row>
   </sheetData>

--- a/stuff/timetracking.xlsx
+++ b/stuff/timetracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0BD2CC-4F50-432E-AE4C-3822CDF2C1B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8E68A8-EAB8-460F-8000-C28E791CD346}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,13 +711,19 @@
       <c r="A12" s="1">
         <v>43903</v>
       </c>
+      <c r="B12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.027777777777779E-2</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -730,7 +736,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,7 +749,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,7 +762,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,7 +775,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,7 +788,7 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,7 +801,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,7 +814,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -821,7 +827,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -834,7 +840,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,7 +853,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -860,7 +866,7 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,7 +879,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -886,7 +892,7 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="1"/>
-        <v>0.10694444444444451</v>
+        <v>0.1972222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/stuff/timetracking.xlsx
+++ b/stuff/timetracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8E68A8-EAB8-460F-8000-C28E791CD346}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B4B4EE-DB0D-4AAA-9025-43E7EEB89EBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35249AD0-12B7-4380-A276-EAAE46E92283}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D25" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D31" si="0">C3-B3</f>
         <v>1.3194444444444509E-2</v>
       </c>
       <c r="E3" s="3">
@@ -612,7 +612,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E25" si="1">E3+D4</f>
+        <f t="shared" ref="E4:E31" si="1">E3+D4</f>
         <v>0.10694444444444451</v>
       </c>
     </row>
@@ -893,6 +893,90 @@
       <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>0.1972222222222223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.92152777777777783</v>
+      </c>
+      <c r="D26" s="3">
+        <f>C26-B26</f>
+        <v>7.7777777777777835E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43918</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43919</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43920</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43921</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000013</v>
       </c>
     </row>
   </sheetData>

--- a/stuff/timetracking.xlsx
+++ b/stuff/timetracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B4B4EE-DB0D-4AAA-9025-43E7EEB89EBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8009DC66-3192-4EA1-A1F2-8B33038BB753}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35249AD0-12B7-4380-A276-EAAE46E92283}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,13 +918,19 @@
       <c r="A27" s="1">
         <v>43918</v>
       </c>
+      <c r="B27" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.7270833333333333</v>
+      </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="1"/>
-        <v>0.27500000000000013</v>
+        <v>0.54375000000000018</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,7 +943,7 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
-        <v>0.27500000000000013</v>
+        <v>0.54375000000000018</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -950,7 +956,7 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>0.27500000000000013</v>
+        <v>0.54375000000000018</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,7 +969,7 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" si="1"/>
-        <v>0.27500000000000013</v>
+        <v>0.54375000000000018</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -976,7 +982,7 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" si="1"/>
-        <v>0.27500000000000013</v>
+        <v>0.54375000000000018</v>
       </c>
     </row>
   </sheetData>

--- a/stuff/timetracking.xlsx
+++ b/stuff/timetracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8009DC66-3192-4EA1-A1F2-8B33038BB753}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B499B0D1-5851-499E-9D3C-BD27A099E547}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,13 +937,19 @@
       <c r="A28" s="1">
         <v>43919</v>
       </c>
+      <c r="B28" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.65069444444444446</v>
+      </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10902777777777783</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
-        <v>0.54375000000000018</v>
+        <v>0.65277777777777801</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,7 +962,7 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>0.54375000000000018</v>
+        <v>0.65277777777777801</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -969,7 +975,7 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" si="1"/>
-        <v>0.54375000000000018</v>
+        <v>0.65277777777777801</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,7 +988,7 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" si="1"/>
-        <v>0.54375000000000018</v>
+        <v>0.65277777777777801</v>
       </c>
     </row>
   </sheetData>
